--- a/基本設計/テーブル定義書.xlsx
+++ b/基本設計/テーブル定義書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FUKUDA\Downloads\kihon_sekkei\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FUKUDA\Downloads\drive-download-20230515T083259Z-001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2799EFC8-441F-4AA5-BCEB-54A911A039E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA195B73-0735-4FD8-9A81-851BD42928E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3270" yWindow="2175" windowWidth="23745" windowHeight="13245" tabRatio="855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8505" yWindow="1095" windowWidth="16440" windowHeight="14370" tabRatio="855" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="117" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="106">
   <si>
     <t>説明／備考</t>
   </si>
@@ -1394,6 +1394,15 @@
     <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1433,11 +1442,59 @@
     <xf numFmtId="176" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1464,63 +1521,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1876,7 +1876,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:S45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
@@ -1894,40 +1894,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="58"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="61"/>
       <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="62" t="s">
+      <c r="J1" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="63"/>
+      <c r="K1" s="66"/>
     </row>
     <row r="2" spans="1:19" ht="19.5" customHeight="1">
-      <c r="A2" s="55"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="61"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="64"/>
       <c r="I2" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="64">
+      <c r="J2" s="67">
         <v>45057</v>
       </c>
-      <c r="K2" s="65"/>
+      <c r="K2" s="68"/>
     </row>
     <row r="3" spans="1:19" ht="19.5" customHeight="1">
       <c r="A3" s="4"/>
@@ -1960,22 +1960,22 @@
       <c r="C4" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="53" t="s">
+      <c r="D4" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="54"/>
-      <c r="F4" s="53" t="s">
+      <c r="E4" s="57"/>
+      <c r="F4" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="54"/>
-      <c r="H4" s="53" t="s">
+      <c r="G4" s="57"/>
+      <c r="H4" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="54"/>
-      <c r="J4" s="53" t="s">
+      <c r="I4" s="57"/>
+      <c r="J4" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="54"/>
+      <c r="K4" s="57"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1994,16 +1994,16 @@
       <c r="C5" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66" t="s">
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
     </row>
     <row r="6" spans="1:19" ht="38.25" customHeight="1">
       <c r="A6" s="51">
@@ -2015,20 +2015,20 @@
       <c r="C6" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="67" t="s">
+      <c r="D6" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67" t="s">
+      <c r="E6" s="54"/>
+      <c r="F6" s="54" t="s">
         <v>104</v>
       </c>
-      <c r="G6" s="67"/>
-      <c r="H6" s="95" t="s">
+      <c r="G6" s="54"/>
+      <c r="H6" s="55" t="s">
         <v>105</v>
       </c>
-      <c r="I6" s="67"/>
-      <c r="J6" s="67"/>
-      <c r="K6" s="67"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
     </row>
     <row r="7" spans="1:19" ht="22.5" customHeight="1"/>
     <row r="8" spans="1:19" ht="22.5" customHeight="1"/>
@@ -2071,6 +2071,14 @@
     <row r="45" ht="22.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="C1:H2"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
@@ -2079,14 +2087,6 @@
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="C1:H2"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -2099,8 +2099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1"/>
@@ -2123,25 +2123,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="68"/>
+      <c r="B1" s="87"/>
       <c r="C1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="69" t="s">
+      <c r="D1" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="71" t="s">
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="69"/>
-      <c r="K1" s="70"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="89"/>
       <c r="L1" s="12" t="s">
         <v>9</v>
       </c>
@@ -2151,27 +2151,27 @@
       <c r="N1" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="68"/>
-      <c r="B2" s="68"/>
+      <c r="A2" s="87"/>
+      <c r="B2" s="87"/>
       <c r="C2" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="73" t="s">
+      <c r="D2" s="92" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="75" t="s">
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="73"/>
-      <c r="K2" s="74"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="93"/>
       <c r="L2" s="17" t="s">
         <v>31</v>
       </c>
@@ -2181,48 +2181,50 @@
       <c r="N2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="76"/>
-      <c r="P2" s="74"/>
+      <c r="O2" s="95">
+        <v>45062</v>
+      </c>
+      <c r="P2" s="93"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="83" t="s">
+      <c r="B3" s="72"/>
+      <c r="C3" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
-      <c r="M3" s="84"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="84"/>
-      <c r="P3" s="85"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="77"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="81"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
-      <c r="N4" s="87"/>
-      <c r="O4" s="87"/>
-      <c r="P4" s="88"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="79"/>
+      <c r="N4" s="79"/>
+      <c r="O4" s="79"/>
+      <c r="P4" s="80"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -2263,10 +2265,10 @@
       <c r="K6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="89" t="s">
+      <c r="L6" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="90"/>
+      <c r="M6" s="82"/>
       <c r="N6" s="26" t="s">
         <v>1</v>
       </c>
@@ -2307,10 +2309,10 @@
       </c>
       <c r="J7" s="35"/>
       <c r="K7" s="35"/>
-      <c r="L7" s="91" t="s">
+      <c r="L7" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="M7" s="92"/>
+      <c r="M7" s="84"/>
       <c r="N7" s="39"/>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
@@ -2326,10 +2328,10 @@
         <v>43</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="E8" s="37">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="38">
         <v>0</v>
@@ -2343,10 +2345,10 @@
       <c r="I8" s="36"/>
       <c r="J8" s="35"/>
       <c r="K8" s="35"/>
-      <c r="L8" s="93" t="s">
+      <c r="L8" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="M8" s="94"/>
+      <c r="M8" s="86"/>
       <c r="N8" s="39"/>
       <c r="O8" s="35"/>
       <c r="P8" s="40"/>
@@ -2375,10 +2377,10 @@
       <c r="I9" s="36"/>
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
-      <c r="L9" s="77" t="s">
+      <c r="L9" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="M9" s="78"/>
+      <c r="M9" s="70"/>
       <c r="N9" s="39"/>
       <c r="O9" s="35"/>
       <c r="P9" s="40"/>
@@ -2405,10 +2407,10 @@
       <c r="I10" s="36"/>
       <c r="J10" s="35"/>
       <c r="K10" s="35"/>
-      <c r="L10" s="77" t="s">
+      <c r="L10" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="M10" s="78"/>
+      <c r="M10" s="70"/>
       <c r="N10" s="39"/>
       <c r="O10" s="35"/>
       <c r="P10" s="40"/>
@@ -2430,15 +2432,19 @@
         <v>1</v>
       </c>
       <c r="F11" s="38"/>
-      <c r="G11" s="36"/>
+      <c r="G11" s="36" t="s">
+        <v>24</v>
+      </c>
       <c r="H11" s="36"/>
       <c r="I11" s="36"/>
       <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="77" t="s">
+      <c r="K11" s="35">
+        <v>1</v>
+      </c>
+      <c r="L11" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="M11" s="78"/>
+      <c r="M11" s="70"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -2458,15 +2464,17 @@
       </c>
       <c r="E12" s="37"/>
       <c r="F12" s="38"/>
-      <c r="G12" s="36"/>
+      <c r="G12" s="36" t="s">
+        <v>24</v>
+      </c>
       <c r="H12" s="36"/>
       <c r="I12" s="36"/>
       <c r="J12" s="35"/>
       <c r="K12" s="35"/>
-      <c r="L12" s="77" t="s">
+      <c r="L12" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="M12" s="78"/>
+      <c r="M12" s="70"/>
       <c r="N12" s="39"/>
       <c r="O12" s="35"/>
       <c r="P12" s="40"/>
@@ -2486,15 +2494,17 @@
       </c>
       <c r="E13" s="37"/>
       <c r="F13" s="38"/>
-      <c r="G13" s="36"/>
+      <c r="G13" s="36" t="s">
+        <v>24</v>
+      </c>
       <c r="H13" s="36"/>
       <c r="I13" s="36"/>
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="77" t="s">
+      <c r="L13" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="M13" s="78"/>
+      <c r="M13" s="70"/>
       <c r="N13" s="39"/>
       <c r="O13" s="35"/>
       <c r="P13" s="40"/>
@@ -2513,8 +2523,8 @@
       <c r="I14" s="36"/>
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
-      <c r="L14" s="77"/>
-      <c r="M14" s="78"/>
+      <c r="L14" s="69"/>
+      <c r="M14" s="70"/>
       <c r="N14" s="39"/>
       <c r="O14" s="35"/>
       <c r="P14" s="40"/>
@@ -2533,8 +2543,8 @@
       <c r="I15" s="36"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
-      <c r="L15" s="77"/>
-      <c r="M15" s="78"/>
+      <c r="L15" s="69"/>
+      <c r="M15" s="70"/>
       <c r="N15" s="39"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -2553,8 +2563,8 @@
       <c r="I16" s="36"/>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="77"/>
-      <c r="M16" s="78"/>
+      <c r="L16" s="69"/>
+      <c r="M16" s="70"/>
       <c r="N16" s="39"/>
       <c r="O16" s="35"/>
       <c r="P16" s="40"/>
@@ -2573,8 +2583,8 @@
       <c r="I17" s="36"/>
       <c r="J17" s="35"/>
       <c r="K17" s="35"/>
-      <c r="L17" s="77"/>
-      <c r="M17" s="78"/>
+      <c r="L17" s="69"/>
+      <c r="M17" s="70"/>
       <c r="N17" s="39"/>
       <c r="O17" s="35"/>
       <c r="P17" s="40"/>
@@ -2593,8 +2603,8 @@
       <c r="I18" s="36"/>
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>
-      <c r="L18" s="77"/>
-      <c r="M18" s="78"/>
+      <c r="L18" s="69"/>
+      <c r="M18" s="70"/>
       <c r="N18" s="39"/>
       <c r="O18" s="35"/>
       <c r="P18" s="40"/>
@@ -2613,8 +2623,8 @@
       <c r="I19" s="36"/>
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
-      <c r="L19" s="77"/>
-      <c r="M19" s="78"/>
+      <c r="L19" s="69"/>
+      <c r="M19" s="70"/>
       <c r="N19" s="39"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
@@ -2633,8 +2643,8 @@
       <c r="I20" s="36"/>
       <c r="J20" s="35"/>
       <c r="K20" s="35"/>
-      <c r="L20" s="77"/>
-      <c r="M20" s="78"/>
+      <c r="L20" s="69"/>
+      <c r="M20" s="70"/>
       <c r="N20" s="39"/>
       <c r="O20" s="35"/>
       <c r="P20" s="40"/>
@@ -2653,19 +2663,21 @@
       <c r="I21" s="36"/>
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="77"/>
-      <c r="M21" s="78"/>
+      <c r="L21" s="69"/>
+      <c r="M21" s="70"/>
       <c r="N21" s="39"/>
       <c r="O21" s="35"/>
       <c r="P21" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="O2:P2"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="C3:P4"/>
@@ -2679,13 +2691,11 @@
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="L8:M8"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -2722,25 +2732,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="68"/>
+      <c r="B1" s="87"/>
       <c r="C1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="69" t="s">
+      <c r="D1" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="71" t="s">
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="69"/>
-      <c r="K1" s="70"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="89"/>
       <c r="L1" s="12" t="s">
         <v>9</v>
       </c>
@@ -2750,29 +2760,29 @@
       <c r="N1" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="O1" s="72" t="s">
+      <c r="O1" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="P1" s="72"/>
+      <c r="P1" s="91"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="68"/>
-      <c r="B2" s="68"/>
+      <c r="A2" s="87"/>
+      <c r="B2" s="87"/>
       <c r="C2" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="73" t="s">
+      <c r="D2" s="92" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="75" t="s">
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="94" t="s">
         <v>59</v>
       </c>
-      <c r="J2" s="73"/>
-      <c r="K2" s="74"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="93"/>
       <c r="L2" s="17" t="s">
         <v>11</v>
       </c>
@@ -2782,50 +2792,50 @@
       <c r="N2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="76">
+      <c r="O2" s="95">
         <v>45058</v>
       </c>
-      <c r="P2" s="74"/>
+      <c r="P2" s="93"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="83" t="s">
+      <c r="B3" s="72"/>
+      <c r="C3" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
-      <c r="M3" s="84"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="84"/>
-      <c r="P3" s="85"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="77"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="81"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
-      <c r="N4" s="87"/>
-      <c r="O4" s="87"/>
-      <c r="P4" s="88"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="79"/>
+      <c r="N4" s="79"/>
+      <c r="O4" s="79"/>
+      <c r="P4" s="80"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -2866,10 +2876,10 @@
       <c r="K6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="89" t="s">
+      <c r="L6" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="90"/>
+      <c r="M6" s="82"/>
       <c r="N6" s="26" t="s">
         <v>1</v>
       </c>
@@ -2910,10 +2920,10 @@
       </c>
       <c r="J7" s="35"/>
       <c r="K7" s="35"/>
-      <c r="L7" s="91" t="s">
+      <c r="L7" s="83" t="s">
         <v>88</v>
       </c>
-      <c r="M7" s="92"/>
+      <c r="M7" s="84"/>
       <c r="N7" s="39"/>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
@@ -2946,10 +2956,10 @@
       <c r="I8" s="36"/>
       <c r="J8" s="35"/>
       <c r="K8" s="35"/>
-      <c r="L8" s="93" t="s">
+      <c r="L8" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="M8" s="94"/>
+      <c r="M8" s="86"/>
       <c r="N8" s="39"/>
       <c r="O8" s="35"/>
       <c r="P8" s="40"/>
@@ -2978,10 +2988,10 @@
       <c r="I9" s="36"/>
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
-      <c r="L9" s="77" t="s">
+      <c r="L9" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="M9" s="78"/>
+      <c r="M9" s="70"/>
       <c r="N9" s="39"/>
       <c r="O9" s="35"/>
       <c r="P9" s="40"/>
@@ -3010,10 +3020,10 @@
       <c r="I10" s="36"/>
       <c r="J10" s="35"/>
       <c r="K10" s="35"/>
-      <c r="L10" s="77" t="s">
+      <c r="L10" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="M10" s="78"/>
+      <c r="M10" s="70"/>
       <c r="N10" s="39"/>
       <c r="O10" s="35"/>
       <c r="P10" s="40"/>
@@ -3040,10 +3050,10 @@
       <c r="I11" s="36"/>
       <c r="J11" s="35"/>
       <c r="K11" s="35"/>
-      <c r="L11" s="77" t="s">
+      <c r="L11" s="69" t="s">
         <v>87</v>
       </c>
-      <c r="M11" s="78"/>
+      <c r="M11" s="70"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -3070,10 +3080,10 @@
       <c r="I12" s="36"/>
       <c r="J12" s="35"/>
       <c r="K12" s="35"/>
-      <c r="L12" s="77" t="s">
+      <c r="L12" s="69" t="s">
         <v>84</v>
       </c>
-      <c r="M12" s="78"/>
+      <c r="M12" s="70"/>
       <c r="N12" s="39"/>
       <c r="O12" s="35"/>
       <c r="P12" s="40"/>
@@ -3100,10 +3110,10 @@
       <c r="I13" s="36"/>
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="77" t="s">
+      <c r="L13" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="M13" s="78"/>
+      <c r="M13" s="70"/>
       <c r="N13" s="39"/>
       <c r="O13" s="35"/>
       <c r="P13" s="40"/>
@@ -3130,10 +3140,10 @@
       <c r="I14" s="36"/>
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
-      <c r="L14" s="77" t="s">
+      <c r="L14" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="M14" s="78"/>
+      <c r="M14" s="70"/>
       <c r="N14" s="39"/>
       <c r="O14" s="35"/>
       <c r="P14" s="40"/>
@@ -3160,10 +3170,10 @@
       <c r="I15" s="36"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
-      <c r="L15" s="77" t="s">
+      <c r="L15" s="69" t="s">
         <v>96</v>
       </c>
-      <c r="M15" s="78"/>
+      <c r="M15" s="70"/>
       <c r="N15" s="39"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -3188,10 +3198,10 @@
       <c r="I16" s="36"/>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="77" t="s">
+      <c r="L16" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="M16" s="78"/>
+      <c r="M16" s="70"/>
       <c r="N16" s="39"/>
       <c r="O16" s="35"/>
       <c r="P16" s="40"/>
@@ -3216,10 +3226,10 @@
       <c r="I17" s="36"/>
       <c r="J17" s="35"/>
       <c r="K17" s="35"/>
-      <c r="L17" s="77" t="s">
+      <c r="L17" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="M17" s="78"/>
+      <c r="M17" s="70"/>
       <c r="N17" s="39"/>
       <c r="O17" s="35"/>
       <c r="P17" s="40"/>
@@ -3238,8 +3248,8 @@
       <c r="I18" s="36"/>
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>
-      <c r="L18" s="77"/>
-      <c r="M18" s="78"/>
+      <c r="L18" s="69"/>
+      <c r="M18" s="70"/>
       <c r="N18" s="39"/>
       <c r="O18" s="35"/>
       <c r="P18" s="40"/>
@@ -3258,8 +3268,8 @@
       <c r="I19" s="36"/>
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
-      <c r="L19" s="77"/>
-      <c r="M19" s="78"/>
+      <c r="L19" s="69"/>
+      <c r="M19" s="70"/>
       <c r="N19" s="39"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
@@ -3278,8 +3288,8 @@
       <c r="I20" s="36"/>
       <c r="J20" s="35"/>
       <c r="K20" s="35"/>
-      <c r="L20" s="77"/>
-      <c r="M20" s="78"/>
+      <c r="L20" s="69"/>
+      <c r="M20" s="70"/>
       <c r="N20" s="39"/>
       <c r="O20" s="35"/>
       <c r="P20" s="40"/>
@@ -3298,8 +3308,8 @@
       <c r="I21" s="36"/>
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="77"/>
-      <c r="M21" s="78"/>
+      <c r="L21" s="69"/>
+      <c r="M21" s="70"/>
       <c r="N21" s="39"/>
       <c r="O21" s="35"/>
       <c r="P21" s="40"/>
@@ -3318,14 +3328,27 @@
       <c r="I22" s="36"/>
       <c r="J22" s="35"/>
       <c r="K22" s="35"/>
-      <c r="L22" s="77"/>
-      <c r="M22" s="78"/>
+      <c r="L22" s="69"/>
+      <c r="M22" s="70"/>
       <c r="N22" s="39"/>
       <c r="O22" s="35"/>
       <c r="P22" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="D1:H1"/>
@@ -3339,19 +3362,6 @@
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -3388,25 +3398,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="68"/>
+      <c r="B1" s="87"/>
       <c r="C1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="69" t="s">
+      <c r="D1" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="71" t="s">
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="69"/>
-      <c r="K1" s="70"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="89"/>
       <c r="L1" s="12" t="s">
         <v>9</v>
       </c>
@@ -3416,27 +3426,27 @@
       <c r="N1" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="68"/>
-      <c r="B2" s="68"/>
+      <c r="A2" s="87"/>
+      <c r="B2" s="87"/>
       <c r="C2" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="73" t="s">
+      <c r="D2" s="92" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="75" t="s">
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="94" t="s">
         <v>52</v>
       </c>
-      <c r="J2" s="73"/>
-      <c r="K2" s="74"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="93"/>
       <c r="L2" s="17" t="s">
         <v>11</v>
       </c>
@@ -3446,48 +3456,48 @@
       <c r="N2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="76"/>
-      <c r="P2" s="74"/>
+      <c r="O2" s="95"/>
+      <c r="P2" s="93"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="83" t="s">
+      <c r="B3" s="72"/>
+      <c r="C3" s="75" t="s">
         <v>89</v>
       </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
-      <c r="M3" s="84"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="84"/>
-      <c r="P3" s="85"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="77"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="81"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
-      <c r="N4" s="87"/>
-      <c r="O4" s="87"/>
-      <c r="P4" s="88"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="79"/>
+      <c r="N4" s="79"/>
+      <c r="O4" s="79"/>
+      <c r="P4" s="80"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -3528,10 +3538,10 @@
       <c r="K6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="89" t="s">
+      <c r="L6" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="90"/>
+      <c r="M6" s="82"/>
       <c r="N6" s="26" t="s">
         <v>1</v>
       </c>
@@ -3572,10 +3582,10 @@
       </c>
       <c r="J7" s="35"/>
       <c r="K7" s="35"/>
-      <c r="L7" s="91" t="s">
+      <c r="L7" s="83" t="s">
         <v>56</v>
       </c>
-      <c r="M7" s="92"/>
+      <c r="M7" s="84"/>
       <c r="N7" s="39"/>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
@@ -3608,10 +3618,10 @@
       <c r="I8" s="36"/>
       <c r="J8" s="35"/>
       <c r="K8" s="35"/>
-      <c r="L8" s="93" t="s">
+      <c r="L8" s="85" t="s">
         <v>91</v>
       </c>
-      <c r="M8" s="94"/>
+      <c r="M8" s="86"/>
       <c r="N8" s="39"/>
       <c r="O8" s="35"/>
       <c r="P8" s="40"/>
@@ -3642,10 +3652,10 @@
       <c r="I9" s="36"/>
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
-      <c r="L9" s="77" t="s">
+      <c r="L9" s="69" t="s">
         <v>90</v>
       </c>
-      <c r="M9" s="78"/>
+      <c r="M9" s="70"/>
       <c r="N9" s="39"/>
       <c r="O9" s="35"/>
       <c r="P9" s="40"/>
@@ -3670,10 +3680,10 @@
       <c r="I10" s="36"/>
       <c r="J10" s="35"/>
       <c r="K10" s="35"/>
-      <c r="L10" s="77" t="s">
+      <c r="L10" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="M10" s="78"/>
+      <c r="M10" s="70"/>
       <c r="N10" s="39"/>
       <c r="O10" s="35"/>
       <c r="P10" s="40"/>
@@ -3700,10 +3710,10 @@
       <c r="I11" s="36"/>
       <c r="J11" s="35"/>
       <c r="K11" s="35"/>
-      <c r="L11" s="77" t="s">
+      <c r="L11" s="69" t="s">
         <v>82</v>
       </c>
-      <c r="M11" s="78"/>
+      <c r="M11" s="70"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -3728,10 +3738,10 @@
       <c r="I12" s="36"/>
       <c r="J12" s="35"/>
       <c r="K12" s="35"/>
-      <c r="L12" s="77" t="s">
+      <c r="L12" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="M12" s="78"/>
+      <c r="M12" s="70"/>
       <c r="N12" s="39"/>
       <c r="O12" s="35"/>
       <c r="P12" s="40"/>
@@ -3756,10 +3766,10 @@
       <c r="I13" s="36"/>
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="77" t="s">
+      <c r="L13" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="M13" s="78"/>
+      <c r="M13" s="70"/>
       <c r="N13" s="39"/>
       <c r="O13" s="35"/>
       <c r="P13" s="40"/>
@@ -3778,8 +3788,8 @@
       <c r="I14" s="36"/>
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
-      <c r="L14" s="77"/>
-      <c r="M14" s="78"/>
+      <c r="L14" s="69"/>
+      <c r="M14" s="70"/>
       <c r="N14" s="39"/>
       <c r="O14" s="35"/>
       <c r="P14" s="40"/>
@@ -3798,8 +3808,8 @@
       <c r="I15" s="36"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
-      <c r="L15" s="77"/>
-      <c r="M15" s="78"/>
+      <c r="L15" s="69"/>
+      <c r="M15" s="70"/>
       <c r="N15" s="39"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -3818,8 +3828,8 @@
       <c r="I16" s="36"/>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="77"/>
-      <c r="M16" s="78"/>
+      <c r="L16" s="69"/>
+      <c r="M16" s="70"/>
       <c r="N16" s="39"/>
       <c r="O16" s="35"/>
       <c r="P16" s="40"/>
@@ -3838,8 +3848,8 @@
       <c r="I17" s="36"/>
       <c r="J17" s="35"/>
       <c r="K17" s="35"/>
-      <c r="L17" s="77"/>
-      <c r="M17" s="78"/>
+      <c r="L17" s="69"/>
+      <c r="M17" s="70"/>
       <c r="N17" s="39"/>
       <c r="O17" s="35"/>
       <c r="P17" s="40"/>
@@ -3858,8 +3868,8 @@
       <c r="I18" s="36"/>
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>
-      <c r="L18" s="77"/>
-      <c r="M18" s="78"/>
+      <c r="L18" s="69"/>
+      <c r="M18" s="70"/>
       <c r="N18" s="39"/>
       <c r="O18" s="35"/>
       <c r="P18" s="40"/>
@@ -3878,21 +3888,21 @@
       <c r="I19" s="36"/>
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
-      <c r="L19" s="77"/>
-      <c r="M19" s="78"/>
+      <c r="L19" s="69"/>
+      <c r="M19" s="70"/>
       <c r="N19" s="39"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="L12:M12"/>
@@ -3902,13 +3912,13 @@
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="O2:P2"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>

--- a/基本設計/テーブル定義書.xlsx
+++ b/基本設計/テーブル定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FUKUDA\Downloads\drive-download-20230515T083259Z-001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA195B73-0735-4FD8-9A81-851BD42928E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8600179-1C22-47D4-9AEA-03B631CC4904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8505" yWindow="1095" windowWidth="16440" windowHeight="14370" tabRatio="855" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-240" yWindow="1380" windowWidth="11925" windowHeight="14370" tabRatio="855" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="117" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="106">
   <si>
     <t>説明／備考</t>
   </si>
@@ -1394,6 +1394,45 @@
     <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1403,44 +1442,32 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1495,33 +1522,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1894,40 +1894,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="61"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="58"/>
       <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="65" t="s">
+      <c r="J1" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="66"/>
+      <c r="K1" s="63"/>
     </row>
     <row r="2" spans="1:19" ht="19.5" customHeight="1">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="64"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="61"/>
       <c r="I2" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="67">
+      <c r="J2" s="64">
         <v>45057</v>
       </c>
-      <c r="K2" s="68"/>
+      <c r="K2" s="65"/>
     </row>
     <row r="3" spans="1:19" ht="19.5" customHeight="1">
       <c r="A3" s="4"/>
@@ -1960,22 +1960,22 @@
       <c r="C4" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="56" t="s">
+      <c r="D4" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="56" t="s">
+      <c r="E4" s="54"/>
+      <c r="F4" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="57"/>
-      <c r="H4" s="56" t="s">
+      <c r="G4" s="54"/>
+      <c r="H4" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="57"/>
-      <c r="J4" s="56" t="s">
+      <c r="I4" s="54"/>
+      <c r="J4" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="57"/>
+      <c r="K4" s="54"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1994,16 +1994,16 @@
       <c r="C5" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53" t="s">
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
     </row>
     <row r="6" spans="1:19" ht="38.25" customHeight="1">
       <c r="A6" s="51">
@@ -2015,20 +2015,20 @@
       <c r="C6" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="54" t="s">
+      <c r="D6" s="67" t="s">
         <v>103</v>
       </c>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54" t="s">
+      <c r="E6" s="67"/>
+      <c r="F6" s="67" t="s">
         <v>104</v>
       </c>
-      <c r="G6" s="54"/>
-      <c r="H6" s="55" t="s">
+      <c r="G6" s="67"/>
+      <c r="H6" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
     </row>
     <row r="7" spans="1:19" ht="22.5" customHeight="1"/>
     <row r="8" spans="1:19" ht="22.5" customHeight="1"/>
@@ -2071,6 +2071,14 @@
     <row r="45" ht="22.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="A1:B2"/>
@@ -2079,14 +2087,6 @@
     <mergeCell ref="C1:H2"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -2099,7 +2099,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -2123,25 +2123,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="87"/>
+      <c r="B1" s="69"/>
       <c r="C1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="88" t="s">
+      <c r="D1" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="90" t="s">
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="88"/>
-      <c r="K1" s="89"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="71"/>
       <c r="L1" s="12" t="s">
         <v>9</v>
       </c>
@@ -2151,27 +2151,27 @@
       <c r="N1" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="87"/>
-      <c r="B2" s="87"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="69"/>
       <c r="C2" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="92" t="s">
+      <c r="D2" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="94" t="s">
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="92"/>
-      <c r="K2" s="93"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="75"/>
       <c r="L2" s="17" t="s">
         <v>31</v>
       </c>
@@ -2181,50 +2181,50 @@
       <c r="N2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="95">
+      <c r="O2" s="77">
         <v>45062</v>
       </c>
-      <c r="P2" s="93"/>
+      <c r="P2" s="75"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="75" t="s">
+      <c r="B3" s="81"/>
+      <c r="C3" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="77"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="85"/>
+      <c r="P3" s="86"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="73"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79"/>
-      <c r="K4" s="79"/>
-      <c r="L4" s="79"/>
-      <c r="M4" s="79"/>
-      <c r="N4" s="79"/>
-      <c r="O4" s="79"/>
-      <c r="P4" s="80"/>
+      <c r="A4" s="82"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="88"/>
+      <c r="O4" s="88"/>
+      <c r="P4" s="89"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -2265,10 +2265,10 @@
       <c r="K6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="81" t="s">
+      <c r="L6" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="82"/>
+      <c r="M6" s="91"/>
       <c r="N6" s="26" t="s">
         <v>1</v>
       </c>
@@ -2309,10 +2309,10 @@
       </c>
       <c r="J7" s="35"/>
       <c r="K7" s="35"/>
-      <c r="L7" s="83" t="s">
+      <c r="L7" s="92" t="s">
         <v>41</v>
       </c>
-      <c r="M7" s="84"/>
+      <c r="M7" s="93"/>
       <c r="N7" s="39"/>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
@@ -2345,10 +2345,10 @@
       <c r="I8" s="36"/>
       <c r="J8" s="35"/>
       <c r="K8" s="35"/>
-      <c r="L8" s="85" t="s">
+      <c r="L8" s="94" t="s">
         <v>44</v>
       </c>
-      <c r="M8" s="86"/>
+      <c r="M8" s="95"/>
       <c r="N8" s="39"/>
       <c r="O8" s="35"/>
       <c r="P8" s="40"/>
@@ -2377,10 +2377,10 @@
       <c r="I9" s="36"/>
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
-      <c r="L9" s="69" t="s">
+      <c r="L9" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="M9" s="70"/>
+      <c r="M9" s="79"/>
       <c r="N9" s="39"/>
       <c r="O9" s="35"/>
       <c r="P9" s="40"/>
@@ -2407,10 +2407,10 @@
       <c r="I10" s="36"/>
       <c r="J10" s="35"/>
       <c r="K10" s="35"/>
-      <c r="L10" s="69" t="s">
+      <c r="L10" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="M10" s="70"/>
+      <c r="M10" s="79"/>
       <c r="N10" s="39"/>
       <c r="O10" s="35"/>
       <c r="P10" s="40"/>
@@ -2441,10 +2441,10 @@
       <c r="K11" s="35">
         <v>1</v>
       </c>
-      <c r="L11" s="69" t="s">
+      <c r="L11" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="M11" s="70"/>
+      <c r="M11" s="79"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -2471,10 +2471,10 @@
       <c r="I12" s="36"/>
       <c r="J12" s="35"/>
       <c r="K12" s="35"/>
-      <c r="L12" s="69" t="s">
+      <c r="L12" s="78" t="s">
         <v>71</v>
       </c>
-      <c r="M12" s="70"/>
+      <c r="M12" s="79"/>
       <c r="N12" s="39"/>
       <c r="O12" s="35"/>
       <c r="P12" s="40"/>
@@ -2501,10 +2501,10 @@
       <c r="I13" s="36"/>
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="69" t="s">
+      <c r="L13" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="M13" s="70"/>
+      <c r="M13" s="79"/>
       <c r="N13" s="39"/>
       <c r="O13" s="35"/>
       <c r="P13" s="40"/>
@@ -2523,8 +2523,8 @@
       <c r="I14" s="36"/>
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
-      <c r="L14" s="69"/>
-      <c r="M14" s="70"/>
+      <c r="L14" s="78"/>
+      <c r="M14" s="79"/>
       <c r="N14" s="39"/>
       <c r="O14" s="35"/>
       <c r="P14" s="40"/>
@@ -2543,8 +2543,8 @@
       <c r="I15" s="36"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
-      <c r="L15" s="69"/>
-      <c r="M15" s="70"/>
+      <c r="L15" s="78"/>
+      <c r="M15" s="79"/>
       <c r="N15" s="39"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -2563,8 +2563,8 @@
       <c r="I16" s="36"/>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="69"/>
-      <c r="M16" s="70"/>
+      <c r="L16" s="78"/>
+      <c r="M16" s="79"/>
       <c r="N16" s="39"/>
       <c r="O16" s="35"/>
       <c r="P16" s="40"/>
@@ -2583,8 +2583,8 @@
       <c r="I17" s="36"/>
       <c r="J17" s="35"/>
       <c r="K17" s="35"/>
-      <c r="L17" s="69"/>
-      <c r="M17" s="70"/>
+      <c r="L17" s="78"/>
+      <c r="M17" s="79"/>
       <c r="N17" s="39"/>
       <c r="O17" s="35"/>
       <c r="P17" s="40"/>
@@ -2603,8 +2603,8 @@
       <c r="I18" s="36"/>
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>
-      <c r="L18" s="69"/>
-      <c r="M18" s="70"/>
+      <c r="L18" s="78"/>
+      <c r="M18" s="79"/>
       <c r="N18" s="39"/>
       <c r="O18" s="35"/>
       <c r="P18" s="40"/>
@@ -2623,8 +2623,8 @@
       <c r="I19" s="36"/>
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
-      <c r="L19" s="69"/>
-      <c r="M19" s="70"/>
+      <c r="L19" s="78"/>
+      <c r="M19" s="79"/>
       <c r="N19" s="39"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
@@ -2643,8 +2643,8 @@
       <c r="I20" s="36"/>
       <c r="J20" s="35"/>
       <c r="K20" s="35"/>
-      <c r="L20" s="69"/>
-      <c r="M20" s="70"/>
+      <c r="L20" s="78"/>
+      <c r="M20" s="79"/>
       <c r="N20" s="39"/>
       <c r="O20" s="35"/>
       <c r="P20" s="40"/>
@@ -2663,21 +2663,19 @@
       <c r="I21" s="36"/>
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="69"/>
-      <c r="M21" s="70"/>
+      <c r="L21" s="78"/>
+      <c r="M21" s="79"/>
       <c r="N21" s="39"/>
       <c r="O21" s="35"/>
       <c r="P21" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="C3:P4"/>
@@ -2691,11 +2689,13 @@
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="O2:P2"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -2709,7 +2709,7 @@
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:P2"/>
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1"/>
@@ -2732,25 +2732,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="87"/>
+      <c r="B1" s="69"/>
       <c r="C1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="88" t="s">
+      <c r="D1" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="90" t="s">
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="88"/>
-      <c r="K1" s="89"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="71"/>
       <c r="L1" s="12" t="s">
         <v>9</v>
       </c>
@@ -2760,29 +2760,29 @@
       <c r="N1" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="O1" s="91" t="s">
+      <c r="O1" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="P1" s="91"/>
+      <c r="P1" s="73"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="87"/>
-      <c r="B2" s="87"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="69"/>
       <c r="C2" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="92" t="s">
+      <c r="D2" s="74" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="94" t="s">
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="J2" s="92"/>
-      <c r="K2" s="93"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="75"/>
       <c r="L2" s="17" t="s">
         <v>11</v>
       </c>
@@ -2792,50 +2792,50 @@
       <c r="N2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="95">
+      <c r="O2" s="77">
         <v>45058</v>
       </c>
-      <c r="P2" s="93"/>
+      <c r="P2" s="75"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="75" t="s">
+      <c r="B3" s="81"/>
+      <c r="C3" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="77"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="85"/>
+      <c r="P3" s="86"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="73"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79"/>
-      <c r="K4" s="79"/>
-      <c r="L4" s="79"/>
-      <c r="M4" s="79"/>
-      <c r="N4" s="79"/>
-      <c r="O4" s="79"/>
-      <c r="P4" s="80"/>
+      <c r="A4" s="82"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="88"/>
+      <c r="O4" s="88"/>
+      <c r="P4" s="89"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -2876,10 +2876,10 @@
       <c r="K6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="81" t="s">
+      <c r="L6" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="82"/>
+      <c r="M6" s="91"/>
       <c r="N6" s="26" t="s">
         <v>1</v>
       </c>
@@ -2920,10 +2920,10 @@
       </c>
       <c r="J7" s="35"/>
       <c r="K7" s="35"/>
-      <c r="L7" s="83" t="s">
+      <c r="L7" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="M7" s="84"/>
+      <c r="M7" s="93"/>
       <c r="N7" s="39"/>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
@@ -2956,10 +2956,10 @@
       <c r="I8" s="36"/>
       <c r="J8" s="35"/>
       <c r="K8" s="35"/>
-      <c r="L8" s="85" t="s">
+      <c r="L8" s="94" t="s">
         <v>57</v>
       </c>
-      <c r="M8" s="86"/>
+      <c r="M8" s="95"/>
       <c r="N8" s="39"/>
       <c r="O8" s="35"/>
       <c r="P8" s="40"/>
@@ -2988,10 +2988,10 @@
       <c r="I9" s="36"/>
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
-      <c r="L9" s="69" t="s">
+      <c r="L9" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="M9" s="70"/>
+      <c r="M9" s="79"/>
       <c r="N9" s="39"/>
       <c r="O9" s="35"/>
       <c r="P9" s="40"/>
@@ -3020,10 +3020,10 @@
       <c r="I10" s="36"/>
       <c r="J10" s="35"/>
       <c r="K10" s="35"/>
-      <c r="L10" s="69" t="s">
+      <c r="L10" s="78" t="s">
         <v>78</v>
       </c>
-      <c r="M10" s="70"/>
+      <c r="M10" s="79"/>
       <c r="N10" s="39"/>
       <c r="O10" s="35"/>
       <c r="P10" s="40"/>
@@ -3050,10 +3050,10 @@
       <c r="I11" s="36"/>
       <c r="J11" s="35"/>
       <c r="K11" s="35"/>
-      <c r="L11" s="69" t="s">
+      <c r="L11" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="M11" s="70"/>
+      <c r="M11" s="79"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -3080,10 +3080,10 @@
       <c r="I12" s="36"/>
       <c r="J12" s="35"/>
       <c r="K12" s="35"/>
-      <c r="L12" s="69" t="s">
+      <c r="L12" s="78" t="s">
         <v>84</v>
       </c>
-      <c r="M12" s="70"/>
+      <c r="M12" s="79"/>
       <c r="N12" s="39"/>
       <c r="O12" s="35"/>
       <c r="P12" s="40"/>
@@ -3110,10 +3110,10 @@
       <c r="I13" s="36"/>
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="69" t="s">
+      <c r="L13" s="78" t="s">
         <v>99</v>
       </c>
-      <c r="M13" s="70"/>
+      <c r="M13" s="79"/>
       <c r="N13" s="39"/>
       <c r="O13" s="35"/>
       <c r="P13" s="40"/>
@@ -3140,10 +3140,10 @@
       <c r="I14" s="36"/>
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
-      <c r="L14" s="69" t="s">
+      <c r="L14" s="78" t="s">
         <v>100</v>
       </c>
-      <c r="M14" s="70"/>
+      <c r="M14" s="79"/>
       <c r="N14" s="39"/>
       <c r="O14" s="35"/>
       <c r="P14" s="40"/>
@@ -3165,15 +3165,17 @@
         <v>1</v>
       </c>
       <c r="F15" s="38"/>
-      <c r="G15" s="36"/>
+      <c r="G15" s="36" t="s">
+        <v>24</v>
+      </c>
       <c r="H15" s="36"/>
       <c r="I15" s="36"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
-      <c r="L15" s="69" t="s">
+      <c r="L15" s="78" t="s">
         <v>96</v>
       </c>
-      <c r="M15" s="70"/>
+      <c r="M15" s="79"/>
       <c r="N15" s="39"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -3193,15 +3195,17 @@
       </c>
       <c r="E16" s="37"/>
       <c r="F16" s="38"/>
-      <c r="G16" s="36"/>
+      <c r="G16" s="36" t="s">
+        <v>24</v>
+      </c>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="69" t="s">
+      <c r="L16" s="78" t="s">
         <v>71</v>
       </c>
-      <c r="M16" s="70"/>
+      <c r="M16" s="79"/>
       <c r="N16" s="39"/>
       <c r="O16" s="35"/>
       <c r="P16" s="40"/>
@@ -3221,15 +3225,17 @@
       </c>
       <c r="E17" s="37"/>
       <c r="F17" s="38"/>
-      <c r="G17" s="36"/>
+      <c r="G17" s="36" t="s">
+        <v>24</v>
+      </c>
       <c r="H17" s="36"/>
       <c r="I17" s="36"/>
       <c r="J17" s="35"/>
       <c r="K17" s="35"/>
-      <c r="L17" s="69" t="s">
+      <c r="L17" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="M17" s="70"/>
+      <c r="M17" s="79"/>
       <c r="N17" s="39"/>
       <c r="O17" s="35"/>
       <c r="P17" s="40"/>
@@ -3248,8 +3254,8 @@
       <c r="I18" s="36"/>
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>
-      <c r="L18" s="69"/>
-      <c r="M18" s="70"/>
+      <c r="L18" s="78"/>
+      <c r="M18" s="79"/>
       <c r="N18" s="39"/>
       <c r="O18" s="35"/>
       <c r="P18" s="40"/>
@@ -3268,8 +3274,8 @@
       <c r="I19" s="36"/>
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
-      <c r="L19" s="69"/>
-      <c r="M19" s="70"/>
+      <c r="L19" s="78"/>
+      <c r="M19" s="79"/>
       <c r="N19" s="39"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
@@ -3288,8 +3294,8 @@
       <c r="I20" s="36"/>
       <c r="J20" s="35"/>
       <c r="K20" s="35"/>
-      <c r="L20" s="69"/>
-      <c r="M20" s="70"/>
+      <c r="L20" s="78"/>
+      <c r="M20" s="79"/>
       <c r="N20" s="39"/>
       <c r="O20" s="35"/>
       <c r="P20" s="40"/>
@@ -3308,8 +3314,8 @@
       <c r="I21" s="36"/>
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="69"/>
-      <c r="M21" s="70"/>
+      <c r="L21" s="78"/>
+      <c r="M21" s="79"/>
       <c r="N21" s="39"/>
       <c r="O21" s="35"/>
       <c r="P21" s="40"/>
@@ -3328,14 +3334,27 @@
       <c r="I22" s="36"/>
       <c r="J22" s="35"/>
       <c r="K22" s="35"/>
-      <c r="L22" s="69"/>
-      <c r="M22" s="70"/>
+      <c r="L22" s="78"/>
+      <c r="M22" s="79"/>
       <c r="N22" s="39"/>
       <c r="O22" s="35"/>
       <c r="P22" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:P4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
     <mergeCell ref="L22:M22"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="L12:M12"/>
@@ -3349,19 +3368,6 @@
     <mergeCell ref="L19:M19"/>
     <mergeCell ref="L20:M20"/>
     <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:P4"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -3374,8 +3380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D75118C9-1EAC-4FAD-A3DF-26755FDB2EEE}">
   <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1"/>
@@ -3398,25 +3404,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="87"/>
+      <c r="B1" s="69"/>
       <c r="C1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="88" t="s">
+      <c r="D1" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="90" t="s">
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="88"/>
-      <c r="K1" s="89"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="71"/>
       <c r="L1" s="12" t="s">
         <v>9</v>
       </c>
@@ -3426,27 +3432,27 @@
       <c r="N1" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="87"/>
-      <c r="B2" s="87"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="69"/>
       <c r="C2" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="92" t="s">
+      <c r="D2" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="94" t="s">
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="J2" s="92"/>
-      <c r="K2" s="93"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="75"/>
       <c r="L2" s="17" t="s">
         <v>11</v>
       </c>
@@ -3456,48 +3462,48 @@
       <c r="N2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="95"/>
-      <c r="P2" s="93"/>
+      <c r="O2" s="77"/>
+      <c r="P2" s="75"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="75" t="s">
+      <c r="B3" s="81"/>
+      <c r="C3" s="84" t="s">
         <v>89</v>
       </c>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="77"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="85"/>
+      <c r="P3" s="86"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="73"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79"/>
-      <c r="K4" s="79"/>
-      <c r="L4" s="79"/>
-      <c r="M4" s="79"/>
-      <c r="N4" s="79"/>
-      <c r="O4" s="79"/>
-      <c r="P4" s="80"/>
+      <c r="A4" s="82"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="88"/>
+      <c r="O4" s="88"/>
+      <c r="P4" s="89"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -3538,10 +3544,10 @@
       <c r="K6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="81" t="s">
+      <c r="L6" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="82"/>
+      <c r="M6" s="91"/>
       <c r="N6" s="26" t="s">
         <v>1</v>
       </c>
@@ -3582,10 +3588,10 @@
       </c>
       <c r="J7" s="35"/>
       <c r="K7" s="35"/>
-      <c r="L7" s="83" t="s">
+      <c r="L7" s="92" t="s">
         <v>56</v>
       </c>
-      <c r="M7" s="84"/>
+      <c r="M7" s="93"/>
       <c r="N7" s="39"/>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
@@ -3618,10 +3624,10 @@
       <c r="I8" s="36"/>
       <c r="J8" s="35"/>
       <c r="K8" s="35"/>
-      <c r="L8" s="85" t="s">
+      <c r="L8" s="94" t="s">
         <v>91</v>
       </c>
-      <c r="M8" s="86"/>
+      <c r="M8" s="95"/>
       <c r="N8" s="39"/>
       <c r="O8" s="35"/>
       <c r="P8" s="40"/>
@@ -3652,10 +3658,10 @@
       <c r="I9" s="36"/>
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
-      <c r="L9" s="69" t="s">
+      <c r="L9" s="78" t="s">
         <v>90</v>
       </c>
-      <c r="M9" s="70"/>
+      <c r="M9" s="79"/>
       <c r="N9" s="39"/>
       <c r="O9" s="35"/>
       <c r="P9" s="40"/>
@@ -3675,15 +3681,17 @@
       </c>
       <c r="E10" s="37"/>
       <c r="F10" s="38"/>
-      <c r="G10" s="36"/>
+      <c r="G10" s="36" t="s">
+        <v>24</v>
+      </c>
       <c r="H10" s="36"/>
       <c r="I10" s="36"/>
       <c r="J10" s="35"/>
       <c r="K10" s="35"/>
-      <c r="L10" s="69" t="s">
+      <c r="L10" s="78" t="s">
         <v>94</v>
       </c>
-      <c r="M10" s="70"/>
+      <c r="M10" s="79"/>
       <c r="N10" s="39"/>
       <c r="O10" s="35"/>
       <c r="P10" s="40"/>
@@ -3705,15 +3713,17 @@
         <v>1</v>
       </c>
       <c r="F11" s="38"/>
-      <c r="G11" s="36"/>
+      <c r="G11" s="36" t="s">
+        <v>24</v>
+      </c>
       <c r="H11" s="36"/>
       <c r="I11" s="36"/>
       <c r="J11" s="35"/>
       <c r="K11" s="35"/>
-      <c r="L11" s="69" t="s">
+      <c r="L11" s="78" t="s">
         <v>82</v>
       </c>
-      <c r="M11" s="70"/>
+      <c r="M11" s="79"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -3733,15 +3743,17 @@
       </c>
       <c r="E12" s="37"/>
       <c r="F12" s="38"/>
-      <c r="G12" s="36"/>
+      <c r="G12" s="36" t="s">
+        <v>24</v>
+      </c>
       <c r="H12" s="36"/>
       <c r="I12" s="36"/>
       <c r="J12" s="35"/>
       <c r="K12" s="35"/>
-      <c r="L12" s="69" t="s">
+      <c r="L12" s="78" t="s">
         <v>71</v>
       </c>
-      <c r="M12" s="70"/>
+      <c r="M12" s="79"/>
       <c r="N12" s="39"/>
       <c r="O12" s="35"/>
       <c r="P12" s="40"/>
@@ -3761,15 +3773,17 @@
       </c>
       <c r="E13" s="37"/>
       <c r="F13" s="38"/>
-      <c r="G13" s="36"/>
+      <c r="G13" s="36" t="s">
+        <v>24</v>
+      </c>
       <c r="H13" s="36"/>
       <c r="I13" s="36"/>
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="69" t="s">
+      <c r="L13" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="M13" s="70"/>
+      <c r="M13" s="79"/>
       <c r="N13" s="39"/>
       <c r="O13" s="35"/>
       <c r="P13" s="40"/>
@@ -3788,8 +3802,8 @@
       <c r="I14" s="36"/>
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
-      <c r="L14" s="69"/>
-      <c r="M14" s="70"/>
+      <c r="L14" s="78"/>
+      <c r="M14" s="79"/>
       <c r="N14" s="39"/>
       <c r="O14" s="35"/>
       <c r="P14" s="40"/>
@@ -3808,8 +3822,8 @@
       <c r="I15" s="36"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
-      <c r="L15" s="69"/>
-      <c r="M15" s="70"/>
+      <c r="L15" s="78"/>
+      <c r="M15" s="79"/>
       <c r="N15" s="39"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -3828,8 +3842,8 @@
       <c r="I16" s="36"/>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="69"/>
-      <c r="M16" s="70"/>
+      <c r="L16" s="78"/>
+      <c r="M16" s="79"/>
       <c r="N16" s="39"/>
       <c r="O16" s="35"/>
       <c r="P16" s="40"/>
@@ -3848,8 +3862,8 @@
       <c r="I17" s="36"/>
       <c r="J17" s="35"/>
       <c r="K17" s="35"/>
-      <c r="L17" s="69"/>
-      <c r="M17" s="70"/>
+      <c r="L17" s="78"/>
+      <c r="M17" s="79"/>
       <c r="N17" s="39"/>
       <c r="O17" s="35"/>
       <c r="P17" s="40"/>
@@ -3868,8 +3882,8 @@
       <c r="I18" s="36"/>
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>
-      <c r="L18" s="69"/>
-      <c r="M18" s="70"/>
+      <c r="L18" s="78"/>
+      <c r="M18" s="79"/>
       <c r="N18" s="39"/>
       <c r="O18" s="35"/>
       <c r="P18" s="40"/>
@@ -3888,21 +3902,21 @@
       <c r="I19" s="36"/>
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
-      <c r="L19" s="69"/>
-      <c r="M19" s="70"/>
+      <c r="L19" s="78"/>
+      <c r="M19" s="79"/>
       <c r="N19" s="39"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="O2:P2"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="L12:M12"/>
@@ -3912,13 +3926,13 @@
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="L9:M9"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>

--- a/基本設計/テーブル定義書.xlsx
+++ b/基本設計/テーブル定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FUKUDA\Downloads\drive-download-20230515T083259Z-001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8600179-1C22-47D4-9AEA-03B631CC4904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A422FBAC-EFC7-42F3-A732-4E74A08A8CC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-240" yWindow="1380" windowWidth="11925" windowHeight="14370" tabRatio="855" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1230" windowWidth="17940" windowHeight="14370" tabRatio="855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="117" r:id="rId1"/>
@@ -1394,6 +1394,15 @@
     <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1433,14 +1442,59 @@
     <xf numFmtId="176" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1468,60 +1522,6 @@
     </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1876,7 +1876,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:S45"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
@@ -1894,40 +1894,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="58"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="61"/>
       <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="62" t="s">
+      <c r="J1" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="63"/>
+      <c r="K1" s="66"/>
     </row>
     <row r="2" spans="1:19" ht="19.5" customHeight="1">
-      <c r="A2" s="55"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="61"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="64"/>
       <c r="I2" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="64">
+      <c r="J2" s="67">
         <v>45057</v>
       </c>
-      <c r="K2" s="65"/>
+      <c r="K2" s="68"/>
     </row>
     <row r="3" spans="1:19" ht="19.5" customHeight="1">
       <c r="A3" s="4"/>
@@ -1960,22 +1960,22 @@
       <c r="C4" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="53" t="s">
+      <c r="D4" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="54"/>
-      <c r="F4" s="53" t="s">
+      <c r="E4" s="57"/>
+      <c r="F4" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="54"/>
-      <c r="H4" s="53" t="s">
+      <c r="G4" s="57"/>
+      <c r="H4" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="54"/>
-      <c r="J4" s="53" t="s">
+      <c r="I4" s="57"/>
+      <c r="J4" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="54"/>
+      <c r="K4" s="57"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1994,16 +1994,16 @@
       <c r="C5" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66" t="s">
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
     </row>
     <row r="6" spans="1:19" ht="38.25" customHeight="1">
       <c r="A6" s="51">
@@ -2015,20 +2015,20 @@
       <c r="C6" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="67" t="s">
+      <c r="D6" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67" t="s">
+      <c r="E6" s="54"/>
+      <c r="F6" s="54" t="s">
         <v>104</v>
       </c>
-      <c r="G6" s="67"/>
-      <c r="H6" s="68" t="s">
+      <c r="G6" s="54"/>
+      <c r="H6" s="55" t="s">
         <v>105</v>
       </c>
-      <c r="I6" s="67"/>
-      <c r="J6" s="67"/>
-      <c r="K6" s="67"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
     </row>
     <row r="7" spans="1:19" ht="22.5" customHeight="1"/>
     <row r="8" spans="1:19" ht="22.5" customHeight="1"/>
@@ -2071,6 +2071,14 @@
     <row r="45" ht="22.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="C1:H2"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
@@ -2079,14 +2087,6 @@
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="C1:H2"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -2123,25 +2123,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="69"/>
+      <c r="B1" s="87"/>
       <c r="C1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="70" t="s">
+      <c r="D1" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="72" t="s">
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="70"/>
-      <c r="K1" s="71"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="89"/>
       <c r="L1" s="12" t="s">
         <v>9</v>
       </c>
@@ -2151,27 +2151,27 @@
       <c r="N1" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="69"/>
-      <c r="B2" s="69"/>
+      <c r="A2" s="87"/>
+      <c r="B2" s="87"/>
       <c r="C2" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="74" t="s">
+      <c r="D2" s="92" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="76" t="s">
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="74"/>
-      <c r="K2" s="75"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="93"/>
       <c r="L2" s="17" t="s">
         <v>31</v>
       </c>
@@ -2181,50 +2181,50 @@
       <c r="N2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="77">
+      <c r="O2" s="95">
         <v>45062</v>
       </c>
-      <c r="P2" s="75"/>
+      <c r="P2" s="93"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="84" t="s">
+      <c r="B3" s="72"/>
+      <c r="C3" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="85"/>
-      <c r="M3" s="85"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="86"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="77"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="82"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="88"/>
-      <c r="O4" s="88"/>
-      <c r="P4" s="89"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="79"/>
+      <c r="N4" s="79"/>
+      <c r="O4" s="79"/>
+      <c r="P4" s="80"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -2265,10 +2265,10 @@
       <c r="K6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="90" t="s">
+      <c r="L6" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="91"/>
+      <c r="M6" s="82"/>
       <c r="N6" s="26" t="s">
         <v>1</v>
       </c>
@@ -2309,10 +2309,10 @@
       </c>
       <c r="J7" s="35"/>
       <c r="K7" s="35"/>
-      <c r="L7" s="92" t="s">
+      <c r="L7" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="M7" s="93"/>
+      <c r="M7" s="84"/>
       <c r="N7" s="39"/>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
@@ -2345,10 +2345,10 @@
       <c r="I8" s="36"/>
       <c r="J8" s="35"/>
       <c r="K8" s="35"/>
-      <c r="L8" s="94" t="s">
+      <c r="L8" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="M8" s="95"/>
+      <c r="M8" s="86"/>
       <c r="N8" s="39"/>
       <c r="O8" s="35"/>
       <c r="P8" s="40"/>
@@ -2377,10 +2377,10 @@
       <c r="I9" s="36"/>
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
-      <c r="L9" s="78" t="s">
+      <c r="L9" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="M9" s="79"/>
+      <c r="M9" s="70"/>
       <c r="N9" s="39"/>
       <c r="O9" s="35"/>
       <c r="P9" s="40"/>
@@ -2407,10 +2407,10 @@
       <c r="I10" s="36"/>
       <c r="J10" s="35"/>
       <c r="K10" s="35"/>
-      <c r="L10" s="78" t="s">
+      <c r="L10" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="M10" s="79"/>
+      <c r="M10" s="70"/>
       <c r="N10" s="39"/>
       <c r="O10" s="35"/>
       <c r="P10" s="40"/>
@@ -2441,10 +2441,10 @@
       <c r="K11" s="35">
         <v>1</v>
       </c>
-      <c r="L11" s="78" t="s">
+      <c r="L11" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="M11" s="79"/>
+      <c r="M11" s="70"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -2471,10 +2471,10 @@
       <c r="I12" s="36"/>
       <c r="J12" s="35"/>
       <c r="K12" s="35"/>
-      <c r="L12" s="78" t="s">
+      <c r="L12" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="M12" s="79"/>
+      <c r="M12" s="70"/>
       <c r="N12" s="39"/>
       <c r="O12" s="35"/>
       <c r="P12" s="40"/>
@@ -2501,10 +2501,10 @@
       <c r="I13" s="36"/>
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="78" t="s">
+      <c r="L13" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="M13" s="79"/>
+      <c r="M13" s="70"/>
       <c r="N13" s="39"/>
       <c r="O13" s="35"/>
       <c r="P13" s="40"/>
@@ -2523,8 +2523,8 @@
       <c r="I14" s="36"/>
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
-      <c r="L14" s="78"/>
-      <c r="M14" s="79"/>
+      <c r="L14" s="69"/>
+      <c r="M14" s="70"/>
       <c r="N14" s="39"/>
       <c r="O14" s="35"/>
       <c r="P14" s="40"/>
@@ -2543,8 +2543,8 @@
       <c r="I15" s="36"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
-      <c r="L15" s="78"/>
-      <c r="M15" s="79"/>
+      <c r="L15" s="69"/>
+      <c r="M15" s="70"/>
       <c r="N15" s="39"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -2563,8 +2563,8 @@
       <c r="I16" s="36"/>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="78"/>
-      <c r="M16" s="79"/>
+      <c r="L16" s="69"/>
+      <c r="M16" s="70"/>
       <c r="N16" s="39"/>
       <c r="O16" s="35"/>
       <c r="P16" s="40"/>
@@ -2583,8 +2583,8 @@
       <c r="I17" s="36"/>
       <c r="J17" s="35"/>
       <c r="K17" s="35"/>
-      <c r="L17" s="78"/>
-      <c r="M17" s="79"/>
+      <c r="L17" s="69"/>
+      <c r="M17" s="70"/>
       <c r="N17" s="39"/>
       <c r="O17" s="35"/>
       <c r="P17" s="40"/>
@@ -2603,8 +2603,8 @@
       <c r="I18" s="36"/>
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>
-      <c r="L18" s="78"/>
-      <c r="M18" s="79"/>
+      <c r="L18" s="69"/>
+      <c r="M18" s="70"/>
       <c r="N18" s="39"/>
       <c r="O18" s="35"/>
       <c r="P18" s="40"/>
@@ -2623,8 +2623,8 @@
       <c r="I19" s="36"/>
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
-      <c r="L19" s="78"/>
-      <c r="M19" s="79"/>
+      <c r="L19" s="69"/>
+      <c r="M19" s="70"/>
       <c r="N19" s="39"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
@@ -2643,8 +2643,8 @@
       <c r="I20" s="36"/>
       <c r="J20" s="35"/>
       <c r="K20" s="35"/>
-      <c r="L20" s="78"/>
-      <c r="M20" s="79"/>
+      <c r="L20" s="69"/>
+      <c r="M20" s="70"/>
       <c r="N20" s="39"/>
       <c r="O20" s="35"/>
       <c r="P20" s="40"/>
@@ -2663,19 +2663,21 @@
       <c r="I21" s="36"/>
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="78"/>
-      <c r="M21" s="79"/>
+      <c r="L21" s="69"/>
+      <c r="M21" s="70"/>
       <c r="N21" s="39"/>
       <c r="O21" s="35"/>
       <c r="P21" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="O2:P2"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="C3:P4"/>
@@ -2689,13 +2691,11 @@
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="L8:M8"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -2732,25 +2732,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="69"/>
+      <c r="B1" s="87"/>
       <c r="C1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="70" t="s">
+      <c r="D1" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="72" t="s">
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="70"/>
-      <c r="K1" s="71"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="89"/>
       <c r="L1" s="12" t="s">
         <v>9</v>
       </c>
@@ -2760,29 +2760,29 @@
       <c r="N1" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="O1" s="73" t="s">
+      <c r="O1" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="P1" s="73"/>
+      <c r="P1" s="91"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="69"/>
-      <c r="B2" s="69"/>
+      <c r="A2" s="87"/>
+      <c r="B2" s="87"/>
       <c r="C2" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="74" t="s">
+      <c r="D2" s="92" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="76" t="s">
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="94" t="s">
         <v>59</v>
       </c>
-      <c r="J2" s="74"/>
-      <c r="K2" s="75"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="93"/>
       <c r="L2" s="17" t="s">
         <v>11</v>
       </c>
@@ -2792,50 +2792,50 @@
       <c r="N2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="77">
+      <c r="O2" s="95">
         <v>45058</v>
       </c>
-      <c r="P2" s="75"/>
+      <c r="P2" s="93"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="84" t="s">
+      <c r="B3" s="72"/>
+      <c r="C3" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="85"/>
-      <c r="M3" s="85"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="86"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="77"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="82"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="88"/>
-      <c r="O4" s="88"/>
-      <c r="P4" s="89"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="79"/>
+      <c r="N4" s="79"/>
+      <c r="O4" s="79"/>
+      <c r="P4" s="80"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -2876,10 +2876,10 @@
       <c r="K6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="90" t="s">
+      <c r="L6" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="91"/>
+      <c r="M6" s="82"/>
       <c r="N6" s="26" t="s">
         <v>1</v>
       </c>
@@ -2920,10 +2920,10 @@
       </c>
       <c r="J7" s="35"/>
       <c r="K7" s="35"/>
-      <c r="L7" s="92" t="s">
+      <c r="L7" s="83" t="s">
         <v>88</v>
       </c>
-      <c r="M7" s="93"/>
+      <c r="M7" s="84"/>
       <c r="N7" s="39"/>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
@@ -2956,10 +2956,10 @@
       <c r="I8" s="36"/>
       <c r="J8" s="35"/>
       <c r="K8" s="35"/>
-      <c r="L8" s="94" t="s">
+      <c r="L8" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="M8" s="95"/>
+      <c r="M8" s="86"/>
       <c r="N8" s="39"/>
       <c r="O8" s="35"/>
       <c r="P8" s="40"/>
@@ -2988,10 +2988,10 @@
       <c r="I9" s="36"/>
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
-      <c r="L9" s="78" t="s">
+      <c r="L9" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="M9" s="79"/>
+      <c r="M9" s="70"/>
       <c r="N9" s="39"/>
       <c r="O9" s="35"/>
       <c r="P9" s="40"/>
@@ -3020,10 +3020,10 @@
       <c r="I10" s="36"/>
       <c r="J10" s="35"/>
       <c r="K10" s="35"/>
-      <c r="L10" s="78" t="s">
+      <c r="L10" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="M10" s="79"/>
+      <c r="M10" s="70"/>
       <c r="N10" s="39"/>
       <c r="O10" s="35"/>
       <c r="P10" s="40"/>
@@ -3050,10 +3050,10 @@
       <c r="I11" s="36"/>
       <c r="J11" s="35"/>
       <c r="K11" s="35"/>
-      <c r="L11" s="78" t="s">
+      <c r="L11" s="69" t="s">
         <v>87</v>
       </c>
-      <c r="M11" s="79"/>
+      <c r="M11" s="70"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -3080,10 +3080,10 @@
       <c r="I12" s="36"/>
       <c r="J12" s="35"/>
       <c r="K12" s="35"/>
-      <c r="L12" s="78" t="s">
+      <c r="L12" s="69" t="s">
         <v>84</v>
       </c>
-      <c r="M12" s="79"/>
+      <c r="M12" s="70"/>
       <c r="N12" s="39"/>
       <c r="O12" s="35"/>
       <c r="P12" s="40"/>
@@ -3110,10 +3110,10 @@
       <c r="I13" s="36"/>
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="78" t="s">
+      <c r="L13" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="M13" s="79"/>
+      <c r="M13" s="70"/>
       <c r="N13" s="39"/>
       <c r="O13" s="35"/>
       <c r="P13" s="40"/>
@@ -3140,10 +3140,10 @@
       <c r="I14" s="36"/>
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
-      <c r="L14" s="78" t="s">
+      <c r="L14" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="M14" s="79"/>
+      <c r="M14" s="70"/>
       <c r="N14" s="39"/>
       <c r="O14" s="35"/>
       <c r="P14" s="40"/>
@@ -3172,10 +3172,10 @@
       <c r="I15" s="36"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
-      <c r="L15" s="78" t="s">
+      <c r="L15" s="69" t="s">
         <v>96</v>
       </c>
-      <c r="M15" s="79"/>
+      <c r="M15" s="70"/>
       <c r="N15" s="39"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -3202,10 +3202,10 @@
       <c r="I16" s="36"/>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="78" t="s">
+      <c r="L16" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="M16" s="79"/>
+      <c r="M16" s="70"/>
       <c r="N16" s="39"/>
       <c r="O16" s="35"/>
       <c r="P16" s="40"/>
@@ -3232,10 +3232,10 @@
       <c r="I17" s="36"/>
       <c r="J17" s="35"/>
       <c r="K17" s="35"/>
-      <c r="L17" s="78" t="s">
+      <c r="L17" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="M17" s="79"/>
+      <c r="M17" s="70"/>
       <c r="N17" s="39"/>
       <c r="O17" s="35"/>
       <c r="P17" s="40"/>
@@ -3254,8 +3254,8 @@
       <c r="I18" s="36"/>
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>
-      <c r="L18" s="78"/>
-      <c r="M18" s="79"/>
+      <c r="L18" s="69"/>
+      <c r="M18" s="70"/>
       <c r="N18" s="39"/>
       <c r="O18" s="35"/>
       <c r="P18" s="40"/>
@@ -3274,8 +3274,8 @@
       <c r="I19" s="36"/>
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
-      <c r="L19" s="78"/>
-      <c r="M19" s="79"/>
+      <c r="L19" s="69"/>
+      <c r="M19" s="70"/>
       <c r="N19" s="39"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
@@ -3294,8 +3294,8 @@
       <c r="I20" s="36"/>
       <c r="J20" s="35"/>
       <c r="K20" s="35"/>
-      <c r="L20" s="78"/>
-      <c r="M20" s="79"/>
+      <c r="L20" s="69"/>
+      <c r="M20" s="70"/>
       <c r="N20" s="39"/>
       <c r="O20" s="35"/>
       <c r="P20" s="40"/>
@@ -3314,8 +3314,8 @@
       <c r="I21" s="36"/>
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="78"/>
-      <c r="M21" s="79"/>
+      <c r="L21" s="69"/>
+      <c r="M21" s="70"/>
       <c r="N21" s="39"/>
       <c r="O21" s="35"/>
       <c r="P21" s="40"/>
@@ -3334,14 +3334,27 @@
       <c r="I22" s="36"/>
       <c r="J22" s="35"/>
       <c r="K22" s="35"/>
-      <c r="L22" s="78"/>
-      <c r="M22" s="79"/>
+      <c r="L22" s="69"/>
+      <c r="M22" s="70"/>
       <c r="N22" s="39"/>
       <c r="O22" s="35"/>
       <c r="P22" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="D1:H1"/>
@@ -3355,19 +3368,6 @@
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -3380,7 +3380,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D75118C9-1EAC-4FAD-A3DF-26755FDB2EEE}">
   <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
@@ -3404,25 +3404,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="69"/>
+      <c r="B1" s="87"/>
       <c r="C1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="70" t="s">
+      <c r="D1" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="72" t="s">
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="70"/>
-      <c r="K1" s="71"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="89"/>
       <c r="L1" s="12" t="s">
         <v>9</v>
       </c>
@@ -3432,27 +3432,27 @@
       <c r="N1" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="69"/>
-      <c r="B2" s="69"/>
+      <c r="A2" s="87"/>
+      <c r="B2" s="87"/>
       <c r="C2" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="74" t="s">
+      <c r="D2" s="92" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="76" t="s">
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="94" t="s">
         <v>52</v>
       </c>
-      <c r="J2" s="74"/>
-      <c r="K2" s="75"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="93"/>
       <c r="L2" s="17" t="s">
         <v>11</v>
       </c>
@@ -3462,48 +3462,48 @@
       <c r="N2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="77"/>
-      <c r="P2" s="75"/>
+      <c r="O2" s="95"/>
+      <c r="P2" s="93"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="84" t="s">
+      <c r="B3" s="72"/>
+      <c r="C3" s="75" t="s">
         <v>89</v>
       </c>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="85"/>
-      <c r="M3" s="85"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="86"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="77"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="82"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="88"/>
-      <c r="O4" s="88"/>
-      <c r="P4" s="89"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="79"/>
+      <c r="N4" s="79"/>
+      <c r="O4" s="79"/>
+      <c r="P4" s="80"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -3544,10 +3544,10 @@
       <c r="K6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="90" t="s">
+      <c r="L6" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="91"/>
+      <c r="M6" s="82"/>
       <c r="N6" s="26" t="s">
         <v>1</v>
       </c>
@@ -3588,10 +3588,10 @@
       </c>
       <c r="J7" s="35"/>
       <c r="K7" s="35"/>
-      <c r="L7" s="92" t="s">
+      <c r="L7" s="83" t="s">
         <v>56</v>
       </c>
-      <c r="M7" s="93"/>
+      <c r="M7" s="84"/>
       <c r="N7" s="39"/>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
@@ -3624,10 +3624,10 @@
       <c r="I8" s="36"/>
       <c r="J8" s="35"/>
       <c r="K8" s="35"/>
-      <c r="L8" s="94" t="s">
+      <c r="L8" s="85" t="s">
         <v>91</v>
       </c>
-      <c r="M8" s="95"/>
+      <c r="M8" s="86"/>
       <c r="N8" s="39"/>
       <c r="O8" s="35"/>
       <c r="P8" s="40"/>
@@ -3658,10 +3658,10 @@
       <c r="I9" s="36"/>
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
-      <c r="L9" s="78" t="s">
+      <c r="L9" s="69" t="s">
         <v>90</v>
       </c>
-      <c r="M9" s="79"/>
+      <c r="M9" s="70"/>
       <c r="N9" s="39"/>
       <c r="O9" s="35"/>
       <c r="P9" s="40"/>
@@ -3688,10 +3688,10 @@
       <c r="I10" s="36"/>
       <c r="J10" s="35"/>
       <c r="K10" s="35"/>
-      <c r="L10" s="78" t="s">
+      <c r="L10" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="M10" s="79"/>
+      <c r="M10" s="70"/>
       <c r="N10" s="39"/>
       <c r="O10" s="35"/>
       <c r="P10" s="40"/>
@@ -3720,10 +3720,10 @@
       <c r="I11" s="36"/>
       <c r="J11" s="35"/>
       <c r="K11" s="35"/>
-      <c r="L11" s="78" t="s">
+      <c r="L11" s="69" t="s">
         <v>82</v>
       </c>
-      <c r="M11" s="79"/>
+      <c r="M11" s="70"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -3750,10 +3750,10 @@
       <c r="I12" s="36"/>
       <c r="J12" s="35"/>
       <c r="K12" s="35"/>
-      <c r="L12" s="78" t="s">
+      <c r="L12" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="M12" s="79"/>
+      <c r="M12" s="70"/>
       <c r="N12" s="39"/>
       <c r="O12" s="35"/>
       <c r="P12" s="40"/>
@@ -3780,10 +3780,10 @@
       <c r="I13" s="36"/>
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="78" t="s">
+      <c r="L13" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="M13" s="79"/>
+      <c r="M13" s="70"/>
       <c r="N13" s="39"/>
       <c r="O13" s="35"/>
       <c r="P13" s="40"/>
@@ -3802,8 +3802,8 @@
       <c r="I14" s="36"/>
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
-      <c r="L14" s="78"/>
-      <c r="M14" s="79"/>
+      <c r="L14" s="69"/>
+      <c r="M14" s="70"/>
       <c r="N14" s="39"/>
       <c r="O14" s="35"/>
       <c r="P14" s="40"/>
@@ -3822,8 +3822,8 @@
       <c r="I15" s="36"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
-      <c r="L15" s="78"/>
-      <c r="M15" s="79"/>
+      <c r="L15" s="69"/>
+      <c r="M15" s="70"/>
       <c r="N15" s="39"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -3842,8 +3842,8 @@
       <c r="I16" s="36"/>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="78"/>
-      <c r="M16" s="79"/>
+      <c r="L16" s="69"/>
+      <c r="M16" s="70"/>
       <c r="N16" s="39"/>
       <c r="O16" s="35"/>
       <c r="P16" s="40"/>
@@ -3862,8 +3862,8 @@
       <c r="I17" s="36"/>
       <c r="J17" s="35"/>
       <c r="K17" s="35"/>
-      <c r="L17" s="78"/>
-      <c r="M17" s="79"/>
+      <c r="L17" s="69"/>
+      <c r="M17" s="70"/>
       <c r="N17" s="39"/>
       <c r="O17" s="35"/>
       <c r="P17" s="40"/>
@@ -3882,8 +3882,8 @@
       <c r="I18" s="36"/>
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>
-      <c r="L18" s="78"/>
-      <c r="M18" s="79"/>
+      <c r="L18" s="69"/>
+      <c r="M18" s="70"/>
       <c r="N18" s="39"/>
       <c r="O18" s="35"/>
       <c r="P18" s="40"/>
@@ -3902,21 +3902,21 @@
       <c r="I19" s="36"/>
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
-      <c r="L19" s="78"/>
-      <c r="M19" s="79"/>
+      <c r="L19" s="69"/>
+      <c r="M19" s="70"/>
       <c r="N19" s="39"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="L12:M12"/>
@@ -3926,13 +3926,13 @@
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="O2:P2"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
